--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-14.91307832271588</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69945154978857</v>
+        <v>-10.69218532171141</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.947790251218962</v>
+        <v>-3.998234894068132</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.866418046816429</v>
+        <v>-6.821275786618158</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.85177259424446</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05862578594848</v>
+        <v>-11.05052165048945</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.976580225167918</v>
+        <v>-4.037171402719426</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.859335110979056</v>
+        <v>-6.823894247186503</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.60755920000484</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.89221270788118</v>
+        <v>-11.88303500358913</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.739740466761093</v>
+        <v>-3.791874016676847</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.694437556687515</v>
+        <v>-6.657294693525539</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.33748490934183</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.75066191291032</v>
+        <v>-12.73893120956413</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.812376562926989</v>
+        <v>-3.875494554926951</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.04490541145768</v>
+        <v>-7.004607303310848</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.03525359617804</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.47813572031083</v>
+        <v>-13.45645486680493</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.571740036696064</v>
+        <v>-3.630314999609947</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.59632383919162</v>
+        <v>-6.561550682843996</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.732165066472986</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.169985371679</v>
+        <v>-14.1475189800026</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.614394759354408</v>
+        <v>-3.682016503531923</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.766183376260175</v>
+        <v>-6.733360973035968</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.430255354999423</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.79702812398063</v>
+        <v>-14.76675871981056</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.447258421276933</v>
+        <v>-3.508464937062002</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.431242992660296</v>
+        <v>-6.413083968618823</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.137558609030753</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.71115889299563</v>
+        <v>-15.68054908895167</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.286825342254422</v>
+        <v>-3.35121328763003</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.188590251791745</v>
+        <v>-6.189257959236674</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.839743645683389</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.36505395842563</v>
+        <v>-16.33232320132132</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.272711839791041</v>
+        <v>-3.338945799867333</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.758940149434821</v>
+        <v>-5.757133411642663</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.547226267781952</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.92065201411996</v>
+        <v>-16.87498606180802</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.130856738500939</v>
+        <v>-3.195192314665181</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.530597295572277</v>
+        <v>-5.525753143520838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.267430512338039</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.53686743197148</v>
+        <v>-17.49683116988149</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.269792256257336</v>
+        <v>-3.321258098728161</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937686176779028</v>
+        <v>-4.92988316428536</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.9998137900391021</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.42621447170709</v>
+        <v>-18.38960839296163</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.046529215897381</v>
+        <v>-3.098976981081336</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.287103463967976</v>
+        <v>-4.282455696459164</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2398335193997458</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.14001991494084</v>
+        <v>-19.11379603234887</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.927166690889365</v>
+        <v>-2.982036532099039</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.748695601904834</v>
+        <v>-3.730981716159978</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.436724175512353</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.92077939490717</v>
+        <v>-19.88186907086157</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.850956396047677</v>
+        <v>-2.906873621484689</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.153113653331873</v>
+        <v>-3.13321335301245</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.583606508615334</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.79682465495559</v>
+        <v>-20.74596105841549</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.829825419261131</v>
+        <v>-2.895535687223755</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.574564790755998</v>
+        <v>-2.536492374092259</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.657415613374407</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.51746428027272</v>
+        <v>-21.46128520877887</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.7513108791193</v>
+        <v>-2.816327255031312</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.15110734764321</v>
+        <v>-2.115705760759183</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.62933209002072</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.43086188032858</v>
+        <v>-22.37127881009588</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.652005762064808</v>
+        <v>-2.719116906431496</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.910235159961134</v>
+        <v>-1.883605415981063</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.470146457552088</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.27723998213765</v>
+        <v>-23.21489443600534</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.674105569261641</v>
+        <v>-2.734984777475668</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.46154884927234</v>
+        <v>-1.42119837191414</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.140034920052779</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.07221770299009</v>
+        <v>-24.01283101730003</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.454469096788845</v>
+        <v>-2.513829597873231</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.21025518852825</v>
+        <v>-1.180234538112172</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.602738198403391</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.52974131809705</v>
+        <v>-24.46680661833688</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.297256724265398</v>
+        <v>-2.355006872100252</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8182061799327627</v>
+        <v>-0.7899922673088431</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.835754591627722</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.19090261160422</v>
+        <v>-25.12935569594526</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.099340382207025</v>
+        <v>-2.14928751754821</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6398104614114033</v>
+        <v>-0.6302399880341015</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.831127576032289</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.75758984780549</v>
+        <v>-25.69788894684722</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.094954460755047</v>
+        <v>-2.144770673067815</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2844199007727492</v>
+        <v>-0.2629616164151601</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.59816704361524</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.19556665476975</v>
+        <v>-26.13595739993137</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.049589631408467</v>
+        <v>-2.094430768641378</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3175827038708413</v>
+        <v>-0.3014791713755183</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.163459557079692</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.47346387488823</v>
+        <v>-26.41220498989179</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.709621803517366</v>
+        <v>-1.747301451095853</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2945926200807704</v>
+        <v>-0.2796673948412026</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.564839295433941</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.39688699556698</v>
+        <v>-26.33133383523845</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.616339145770067</v>
+        <v>-1.651361055871684</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4502470085660515</v>
+        <v>-0.4390007204250089</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.849437325792021</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.34096977012996</v>
+        <v>-26.26183989175457</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.695599947173877</v>
+        <v>-1.726209751217832</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3919731686175288</v>
+        <v>-0.3904937383964138</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.067040749827139</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.48833673091643</v>
+        <v>-26.42235152459413</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.412753836581227</v>
+        <v>-1.443075609962664</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7221479539830186</v>
+        <v>-0.7240725225007523</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.262632355356662</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.42747061500525</v>
+        <v>-26.3458139221814</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.33222308180177</v>
+        <v>-1.357766164645978</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7899268057946344</v>
+        <v>-0.7942079888238789</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.477696892437038</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.22816648884565</v>
+        <v>-26.15481031602346</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.413421544026155</v>
+        <v>-1.437524473557773</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9259689246230099</v>
+        <v>-0.9340861523848801</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.742846313948699</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.88497795445549</v>
+        <v>-25.81611244150801</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.328059729498101</v>
+        <v>-1.351167644013747</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.404531870396623</v>
+        <v>-1.41452129746486</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.072992593479073</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.91624237364153</v>
+        <v>-25.83713867987182</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.165139112935662</v>
+        <v>-1.185589289974438</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.707016435251862</v>
+        <v>-1.712973433044847</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4795858634894689</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.55883559836525</v>
+        <v>-25.48458914894982</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.141808629271706</v>
+        <v>-1.158252561640914</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.213675462923819</v>
+        <v>-2.216293923492164</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.03457083274911837</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.99349686935668</v>
+        <v>-24.92762949375995</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.166435250916993</v>
+        <v>-1.181242645430985</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.309183812154211</v>
+        <v>-2.317994931966692</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.4791384872753626</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.58554071280849</v>
+        <v>-24.51799752244802</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.333414481360367</v>
+        <v>-1.349478736947165</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.510294676105965</v>
+        <v>-2.522810917622655</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.8629829354987559</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.92555772655708</v>
+        <v>-23.86551642572492</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.334710619341698</v>
+        <v>-1.348444445022668</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.677575029514699</v>
+        <v>-2.707674233747827</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.197520299857518</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.16090177908607</v>
+        <v>-23.10292906210291</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.319733024890763</v>
+        <v>-1.331280435997166</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.832221310681167</v>
+        <v>-2.847172720526419</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.498004812307296</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76758281711493</v>
+        <v>-22.71588131319296</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.394123489637451</v>
+        <v>-1.405841100680796</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.148478978125902</v>
+        <v>-3.163011434280218</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.773312047885856</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.15575332071539</v>
+        <v>-22.08860289944018</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.293757896052779</v>
+        <v>-1.313383258012526</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.381037553503482</v>
+        <v>-3.392912272180928</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.028620391469111</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.6666248865485</v>
+        <v>-21.60045638798642</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.459205327063671</v>
+        <v>-1.480637426815577</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.611488268123545</v>
+        <v>-3.624266355697069</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.271244119173226</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.16008368960212</v>
+        <v>-21.12469519502094</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.359219410261409</v>
+        <v>-1.388375968689933</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.615586158913005</v>
+        <v>-3.625680324403976</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.506214060086716</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.37118079726823</v>
+        <v>-20.3143471106323</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.081335282445773</v>
+        <v>-1.112403317089189</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.736022252754043</v>
+        <v>-3.739360789978683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.735409508621109</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.5215819889601</v>
+        <v>-19.48107440396781</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.087959987683687</v>
+        <v>-1.121266806113038</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.871082448869289</v>
+        <v>-3.877183461993533</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.961481420411928</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.09787579209333</v>
+        <v>-19.05768242236923</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.1036838433966</v>
+        <v>-1.139321091731778</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.104164716360538</v>
+        <v>-4.104950254531042</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.186325755285103</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.59200230259187</v>
+        <v>-18.56363128233385</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.096077215445557</v>
+        <v>-1.129318572360699</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.211390676634275</v>
+        <v>-4.214532829316289</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.4101199570979</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.11727540155088</v>
+        <v>-18.10189194571186</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.059837721179659</v>
+        <v>-1.093812247053938</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.330098586500205</v>
+        <v>-4.344382288900528</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.635571434006244</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.36734829477681</v>
+        <v>-17.34544487212261</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.144859135833828</v>
+        <v>-1.183311229279978</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.649707883472422</v>
+        <v>-4.65637186561886</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.868186666818568</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.5289564977012</v>
+        <v>-16.50325630722289</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.074514192665234</v>
+        <v>-1.110229994817463</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.586550614563936</v>
+        <v>-4.601109255323935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.112862745581076</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86797849643382</v>
+        <v>-15.86004456091174</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.001982834922072</v>
+        <v>-1.049625724963113</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.828352355747774</v>
+        <v>-4.835330553162414</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.372828325061832</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.00510409304418</v>
+        <v>-14.98509905430202</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.969317539331965</v>
+        <v>-1.011775877447683</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.947020988705179</v>
+        <v>-4.95499420113579</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.651515922295595</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.2044050358499</v>
+        <v>-14.18742431906418</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9728393687963893</v>
+        <v>-1.013176753851747</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.134515857701538</v>
+        <v>-5.140773978459883</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.950680308665934</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.51853856688039</v>
+        <v>-13.48442002567486</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9139370983114637</v>
+        <v>-0.9578617743454547</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.040892800080355</v>
+        <v>-5.043655275979959</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.267639328688679</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.8116196749414</v>
+        <v>-12.78340576231748</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9020361950283348</v>
+        <v>-0.9502420540915701</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.121973431579164</v>
+        <v>-5.122575677509884</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.603889481875462</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.43909128988292</v>
+        <v>-12.41615357530422</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.099952537086708</v>
+        <v>-1.148158396149943</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.291819876344877</v>
+        <v>-5.294176490856388</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.957449958313402</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.74699288476076</v>
+        <v>-11.73293175150874</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.187186550921129</v>
+        <v>-1.235863732886666</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.766625331202914</v>
+        <v>-5.771692052402662</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.321561943969995</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.32432097981847</v>
+        <v>-11.31067880025739</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.196416624424545</v>
+        <v>-1.248131220649363</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.901345127444276</v>
+        <v>-5.904238526372297</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.694099432208518</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54538132994714</v>
+        <v>-10.53524788754764</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.18492158252951</v>
+        <v>-1.236662363360011</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.362665510375336</v>
+        <v>-6.361906156810515</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.069418424282016</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.09372306651327</v>
+        <v>-10.07261827433241</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.376592896132379</v>
+        <v>-1.436202150970758</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.217210025803759</v>
+        <v>-6.21008781305786</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.438422187788533</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.509557606018296</v>
+        <v>-9.499489625133009</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.369379037266588</v>
+        <v>-1.426448385353672</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.445644525786195</v>
+        <v>-6.43596931398616</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.796511325056117</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.227850525772876</v>
+        <v>-9.212990762047518</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.453850575201405</v>
+        <v>-1.506887494013237</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.336245243240732</v>
+        <v>-6.320796325887495</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.136269260216546</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.613873891707291</v>
+        <v>-8.589063977822221</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.525334548717229</v>
+        <v>-1.585428218760752</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.72511282224568</v>
+        <v>-6.722716930825644</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.449886713456676</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.044437271909258</v>
+        <v>-8.016760143701848</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.450459668765398</v>
+        <v>-1.505434248397806</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.598326961526404</v>
+        <v>-6.592173579190793</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.732567049845285</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.578272736926759</v>
+        <v>-7.552166685060357</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.427456492672485</v>
+        <v>-1.490024607953094</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.669653827408128</v>
+        <v>-6.660764153778596</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.979185078826116</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.179756130727459</v>
+        <v>-7.141749175577928</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.57350113087194</v>
+        <v>-1.633254401041577</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.83540238138438</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.183544263587217</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.748155275247118</v>
+        <v>-6.711470642684601</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.463172294824714</v>
+        <v>-1.518827674204892</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.997589828987683</v>
+        <v>-7.005968902806387</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.340784891609822</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.499951397973675</v>
+        <v>-6.468268025096698</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.625124080976865</v>
+        <v>-1.679483322375712</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.038018860162933</v>
+        <v>-7.039799413349408</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.4475564744398</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.374762798201091</v>
+        <v>-6.337384273587962</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.616470068798485</v>
+        <v>-1.670672202563231</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.101176129071419</v>
+        <v>-7.097130607493326</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.502009540651033</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.102521452910239</v>
+        <v>-6.062472098517398</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.564179411248631</v>
+        <v>-1.607043610752442</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.048924748430091</v>
+        <v>-7.049854301931854</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.502082277161829</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.013022470684199</v>
+        <v>-5.968862133199057</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.838109663606065</v>
+        <v>-1.88501938468797</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.077230307173902</v>
+        <v>-7.082401766796385</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.446955582344465</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.922292811991038</v>
+        <v>-5.870093800561076</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.790492958170707</v>
+        <v>-1.835648310671821</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821105586681216</v>
+        <v>-6.824273923968913</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.338712384536199</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.667595152508098</v>
+        <v>-5.609412958679468</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.807630782590527</v>
+        <v>-1.850481889791496</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.720203208680033</v>
+        <v>-6.72708975997478</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.178194906650633</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.77152185246572</v>
+        <v>-5.702525416489824</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.890518151881495</v>
+        <v>-1.931654167410198</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.526712064982163</v>
+        <v>-6.542147890032558</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.969308729952726</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.842783256833235</v>
+        <v>-5.77448071290795</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.977136827482354</v>
+        <v>-2.019516611781022</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.363634340785623</v>
+        <v>-6.376451705267673</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.722809797446754</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.038775030373874</v>
+        <v>-5.975185715471611</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.837062279378727</v>
+        <v>-1.880908401595668</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.244009969720772</v>
+        <v>-6.269827990924655</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.448256759961968</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.200255493623724</v>
+        <v>-6.129596335186928</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.110154624354291</v>
+        <v>-2.142440243161988</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104904252027432</v>
+        <v>-6.125917398088403</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.156341955736663</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.67800671662115</v>
+        <v>-6.609010280645253</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.081979988638897</v>
+        <v>-2.121584204735118</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.861531434502587</v>
+        <v>-5.887833870911614</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.859755264803682</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.127661857720232</v>
+        <v>-7.068537018086996</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.136653445305944</v>
+        <v>-2.174581846638425</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.921520366123375</v>
+        <v>-5.945178157358375</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.566864645143069</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.614878815672225</v>
+        <v>-7.553659207584314</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082045450153105</v>
+        <v>-2.123901542338103</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.549437119361521</v>
+        <v>-5.57241411084875</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.282272456511647</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.005500763257965</v>
+        <v>-7.947920815360053</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.128627863663966</v>
+        <v>-2.161568097613749</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.388545809739549</v>
+        <v>-5.411130032141527</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.009277757681884</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.390060974627984</v>
+        <v>-8.328082012975253</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.390303720561545</v>
+        <v>-2.426726507067227</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.995593432247983</v>
+        <v>-5.018727531369313</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.747619300416226</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.283217874490536</v>
+        <v>-9.232301908739064</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.313307887549354</v>
+        <v>-2.350607858345432</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.981911975778379</v>
+        <v>-5.011055441904062</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.493394378113479</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.00842671349943</v>
+        <v>-9.96400452995745</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.402531931415718</v>
+        <v>-2.440028286754421</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.812824884577487</v>
+        <v>-4.841339920166766</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.242872583922253</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.75607575957904</v>
+        <v>-10.71717852783627</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.486754715596541</v>
+        <v>-2.510883829733843</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.484980529117824</v>
+        <v>-4.514660779660018</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.99371193800881</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.89954439747255</v>
+        <v>-11.8582381820069</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.560294180658517</v>
+        <v>-2.590498123314379</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.376497707771282</v>
+        <v>-4.408652403550561</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.743002014645059</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.70997103567823</v>
+        <v>-12.67150584992924</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.702214743462827</v>
+        <v>-2.733479162648869</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.006640152492521</v>
+        <v>-4.042866554455577</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.489718270725273</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.74739202055377</v>
+        <v>-13.70587632824265</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.800040430296205</v>
+        <v>-2.829956342289549</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.702047726879764</v>
+        <v>-3.729083332247928</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.238358038047782</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.74211900586243</v>
+        <v>-14.70324795872534</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.836463216801886</v>
+        <v>-2.865200821539475</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.245833342056977</v>
+        <v>-3.277123945848702</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.992740614063879</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.09193542884439</v>
+        <v>-16.06349894707216</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.733806470219912</v>
+        <v>-2.767636980762933</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.995325219483391</v>
+        <v>-3.027362084537094</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.756073590085623</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.52462612881447</v>
+        <v>-17.48982678786116</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.981892516767779</v>
+        <v>-3.010119521694541</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.734958592869984</v>
+        <v>-2.760567137228401</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.53652510799701</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.98973337062067</v>
+        <v>-18.95985673553585</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.175409845071333</v>
+        <v>-3.206739725771583</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.61546514483355</v>
+        <v>-2.637106721430924</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.337968205953314</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.60434161857653</v>
+        <v>-20.58335465712125</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.375682801641216</v>
+        <v>-3.41431818732715</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.686517072355598</v>
+        <v>-2.700172344219518</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.162327698803285</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.08529054682122</v>
+        <v>-22.06084721741572</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.407235251489776</v>
+        <v>-3.430408627519631</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.568987469745423</v>
+        <v>-2.587630908992041</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.012351344756886</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.07625013226535</v>
+        <v>-24.05290655629855</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.59545019714243</v>
+        <v>-3.635303166992644</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.544452494220028</v>
+        <v>-2.55994068848179</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.88723414915064</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23768459301159</v>
+        <v>-26.22162033742479</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.404315667956071</v>
+        <v>-3.441668007963516</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.692382424028691</v>
+        <v>-2.71596166144664</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.781342034448219</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.41503929401336</v>
+        <v>-28.39724685445146</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.899008330830691</v>
+        <v>-3.941649961186192</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.926839383318322</v>
+        <v>-2.939525824771954</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.690045936136785</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.47146039366612</v>
+        <v>-30.44438551138943</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.879932845590296</v>
+        <v>-3.922626845157164</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.262643858905753</v>
+        <v>-3.272908224333667</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.605610681016732</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.74569813569667</v>
+        <v>-32.71375291676286</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.043979400197124</v>
+        <v>-4.08074258657669</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.341668998858412</v>
+        <v>-3.357078639303124</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.521632502373281</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.23790962773912</v>
+        <v>-35.21342702142509</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.310905270534235</v>
+        <v>-4.356689053571751</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.775377715096271</v>
+        <v>-3.783036712258681</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.433181753368971</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.63486152430517</v>
+        <v>-37.61299737855949</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.178856304072585</v>
+        <v>-4.215501659726577</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.153038282868701</v>
+        <v>-4.172676737131291</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.339861147372174</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.25262820059977</v>
+        <v>-40.23454773037535</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.296647752739595</v>
+        <v>-4.334183384986823</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.402512113517792</v>
+        <v>-4.423341967338978</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.240385779003457</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68832022127449</v>
+        <v>-42.67403651887417</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.451438049237322</v>
+        <v>-4.489300989055594</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.900975359610828</v>
+        <v>-4.932318332613921</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.143793330997093</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.06033128092705</v>
+        <v>-45.04171402628612</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.542665215438469</v>
+        <v>-4.579245109578252</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.122196000727474</v>
+        <v>-5.140800163065567</v>
       </c>
     </row>
   </sheetData>
